--- a/Manual-Testing/SauceDemo/TestCases/SauceDemo_TestCases.xlsx
+++ b/Manual-Testing/SauceDemo/TestCases/SauceDemo_TestCases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodingProjects\QA-Portfolio\Manual-Testing\SauceDemo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87608288-D77F-414E-B5AE-A98B584DC270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8689538D-6DD2-437F-AB44-4A0B3B208D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{4C38DD76-CF43-4CD3-BDA5-DD01809C6AAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Severity &amp; Priority Key " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,143 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+  <si>
+    <t>BRING ME BACK TO THE TEST CASES!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The defect has no major impact on the system's functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bug can be fixed later when resources become available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The defect causes unfavorable behavior but the system remains functional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bug should be fixed in the next release or sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The defect causes a system failure but some parts may still be functional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bug must be fixed immediately to avoid major disruption to users or the business itself </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system is completely shut down or a core feature becomes unavailable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity is known as the techincal impact a defect has on the application's functionality and performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the severity rating is typically identified by the tester and is based on the nature of the bug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority measures how urgently a defect needs to be fixed based on business needs, user impact and release schedules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the priority ranking is typically set by product/project managers or stakeholders in consultation with the team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select to view the Severity &amp; Priority Rating Key </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Updated: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case ID </t>
+  </si>
+  <si>
+    <t>Feature/Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario </t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status (ex. Pass/Fail) </t>
+  </si>
+  <si>
+    <t>Severity/Priority</t>
+  </si>
+  <si>
+    <t>Comments/Attachments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website Under Test: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t>Author:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danielle Buonpane </t>
+  </si>
+  <si>
+    <t>Helpful Link(s)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]mm/dd/yyyy\ h:mm\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +180,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,18 +259,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -83,6 +611,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB1DF94C-0755-4907-BE7F-A1A1E83D49A2}" name="Table1" displayName="Table1" ref="A6:J7" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A6:J7" xr:uid="{BB1DF94C-0755-4907-BE7F-A1A1E83D49A2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B011EBE0-F8AD-4DD8-BE71-830A8FA49270}" name="Test Case ID " dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C47D0AD3-C0D2-4721-BFDA-48A86F3DA9E9}" name="Feature/Module" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4F9A7D38-CBD8-4899-A573-E96697D869CD}" name="Test Scenario " dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1454AAC5-8DFB-47ED-A2F7-C0947EC4B23D}" name="Preconditions" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8030947D-1C87-4E6A-A4E4-8C3FA4F0C06E}" name="Test Steps " dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{7836C71F-EDA6-45DC-945C-66CBBD11898A}" name="Expected Results " dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{014D84C0-1923-4E15-BFB4-B001E4225D24}" name="Actual Results " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7832FEF6-B58E-492F-8F0A-ECCA519ACBCB}" name="Status (ex. Pass/Fail) " dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5D07A50D-6F6D-4EBE-BC31-B38BC542353A}" name="Severity/Priority" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E6A9E6E3-0AF1-412B-BA75-BE2F2542DF50}" name="Comments/Attachments" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3539645C-9398-4EB9-A187-25742C885B7D}" name="SeverityDesc" displayName="SeverityDesc" ref="A5:B9" totalsRowShown="0">
+  <autoFilter ref="A5:B9" xr:uid="{3539645C-9398-4EB9-A187-25742C885B7D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D38191A1-A192-44F7-8CC1-2049E6D6718B}" name="Value  "/>
+    <tableColumn id="2" xr3:uid="{F91F5124-E7F9-4AAB-B0C8-83D4C664F212}" name="Definition " dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8369E32-4F2F-4C26-951E-A09F7F378591}" name="PriorityDesc" displayName="PriorityDesc" ref="D5:E8" totalsRowShown="0">
+  <autoFilter ref="D5:E8" xr:uid="{D8369E32-4F2F-4C26-951E-A09F7F378591}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AABD4610-0881-46F2-B38C-2F085F954B54}" name="Value "/>
+    <tableColumn id="2" xr3:uid="{66E9AA3F-59E8-4A4A-8D2F-4F168108B62B}" name="Definition " dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +971,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025E7C9E-74E3-4BF8-8479-330E9E029DCD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11">
+        <f ca="1">NOW()</f>
+        <v>45977.76065960648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:J5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" location="'Severity &amp; Priority Key'!A1" display="Select to view the Severity &amp; Priority Rating Key " xr:uid="{F3949ABE-C1BE-4FE3-8718-03631FA7FAA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983C971C-B98C-4FF5-90C7-7BD846EDF5A8}">
+  <dimension ref="A2:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2:E2" location="'Test Cases'!A1" display="BRING ME BACK TO THE TEST CASES!" xr:uid="{F534A6E2-987B-4143-9D0E-8D036D1197DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>